--- a/modelos/OBACON4426076/OBACON4426076_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426076/OBACON4426076_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45062</v>
       </c>
       <c r="B2" t="n">
-        <v>295.6985751208787</v>
+        <v>248.2739523150542</v>
       </c>
       <c r="C2" t="n">
-        <v>182.9836604251185</v>
+        <v>124.7499700118478</v>
       </c>
       <c r="D2" t="n">
-        <v>426.3733833247557</v>
+        <v>386.0999286028152</v>
       </c>
       <c r="E2" t="n">
         <v>191</v>
@@ -557,22 +557,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>10961.79163234229</v>
+        <v>3280.305613787103</v>
       </c>
       <c r="C2" t="n">
-        <v>104.6985751208787</v>
+        <v>57.2739523150542</v>
       </c>
       <c r="D2" t="n">
-        <v>104.6985751208787</v>
+        <v>57.2739523150542</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5481600791669043</v>
+        <v>0.2998636246861476</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5481600791669043</v>
+        <v>0.2998636246861476</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4302399081192104</v>
+        <v>0.2607664397727659</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>

--- a/modelos/OBACON4426076/OBACON4426076_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426076/OBACON4426076_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45062</v>
       </c>
       <c r="B2" t="n">
-        <v>248.2739523150542</v>
+        <v>239.6278680146576</v>
       </c>
       <c r="C2" t="n">
-        <v>124.7499700118478</v>
+        <v>118.8061484959638</v>
       </c>
       <c r="D2" t="n">
-        <v>386.0999286028152</v>
+        <v>361.7186467539186</v>
       </c>
       <c r="E2" t="n">
         <v>191</v>
@@ -557,22 +557,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>3280.305613787103</v>
+        <v>2364.669547650956</v>
       </c>
       <c r="C2" t="n">
-        <v>57.2739523150542</v>
+        <v>48.62786801465757</v>
       </c>
       <c r="D2" t="n">
-        <v>57.2739523150542</v>
+        <v>48.62786801465757</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2998636246861476</v>
+        <v>0.2545961676160082</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2998636246861476</v>
+        <v>0.2545961676160082</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2607664397727659</v>
+        <v>0.2258463588938112</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
